--- a/aula4/Aula 4.xlsx
+++ b/aula4/Aula 4.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stark\Documents\#Documentos\Cursos\AMV Cursos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD0A9B6-7626-40D9-A690-A750016DFBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E386439A-7513-4B3F-9AAA-2B6CD2F39233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FE7F4A90-C2DA-49C6-BA20-F2F4E0194853}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Planilha1!$A$1:$M$33</definedName>
@@ -4067,14 +4067,138 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1733920</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>16547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563521</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>36637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F189CE7-2150-4356-8FD5-29D9751A2C3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:lum bright="70000" contrast="-70000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7796454" y="814588"/>
+          <a:ext cx="3669331" cy="5593502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>326156</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>107044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>413181</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>118193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BD13FA-1A99-412D-8BB6-F5650A0A2D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:lum bright="70000" contrast="-70000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="326156" y="107044"/>
+          <a:ext cx="3734897" cy="2949713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>356276</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>132788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>777690</xdr:colOff>
+      <xdr:colOff>443301</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>2349</xdr:rowOff>
     </xdr:to>
@@ -4092,7 +4216,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4106,8 +4230,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="695326" y="132788"/>
-          <a:ext cx="3739964" cy="2927086"/>
+          <a:off x="356276" y="132788"/>
+          <a:ext cx="3734897" cy="2949987"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4153,7 +4277,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4767,8 +4891,8 @@
   </sheetPr>
   <dimension ref="G1:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="74" zoomScaleNormal="80" zoomScaleSheetLayoutView="74" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="80" zoomScaleSheetLayoutView="74" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
